--- a/Team ALGORITHM ACES.xlsx
+++ b/Team ALGORITHM ACES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3db6d2c0641cc861/Desktop/Exhibition - 25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{55799287-AB0F-41CE-A985-1244BF29ACD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4077953-9364-4B02-9EB4-9E848DFC014F}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{55799287-AB0F-41CE-A985-1244BF29ACD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8EF8F6B-809F-410A-AC92-91C9FEC2B82A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7728C7AC-9AEB-4F8C-9C94-4DA6B618EA8B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t xml:space="preserve">  Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Note: Minimum two members</t>
   </si>
   <si>
-    <t>Project Title - IntelliVision: Real-Time Multi-Object Detection &amp; Analytics</t>
-  </si>
-  <si>
     <t>Riya Gupta</t>
   </si>
   <si>
@@ -112,15 +109,34 @@
   </si>
   <si>
     <t>24/CSE/194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehak </t>
+  </si>
+  <si>
+    <t>24/CSE/185</t>
+  </si>
+  <si>
+    <t>mehakgirdhar7738@gmail.com</t>
+  </si>
+  <si>
+    <t>Project Title - IntelliVision: Real-Time Object Tracker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -210,49 +226,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -582,34 +604,34 @@
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="A3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
+      <c r="C4" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>5</v>
@@ -624,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="77.400000000000006" x14ac:dyDescent="0.5">
@@ -632,25 +654,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="6">
         <v>8930228386</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="77.400000000000006" x14ac:dyDescent="0.5">
@@ -658,64 +680,78 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="6">
         <v>7293080000</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="77.400000000000006" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F7" s="6">
         <v>8287919312</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="8" spans="1:8" ht="103.2" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="15">
+        <v>7404253000</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
@@ -742,11 +778,11 @@
       <c r="H10" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -754,11 +790,12 @@
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A12:C12"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{B23F7EDC-BC80-4093-9019-A4033A15ECEC}"/>
     <hyperlink ref="E6" r:id="rId2" xr:uid="{0FB7D096-66E1-4F20-985F-787555F541B5}"/>
     <hyperlink ref="E7" r:id="rId3" xr:uid="{E928D31C-0512-4EB5-A26A-D35607AB850A}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{B8125232-4884-4480-BA92-381CCB8495BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
